--- a/admin_interface/initData/parametrage_tarifs_supplements.xlsx
+++ b/admin_interface/initData/parametrage_tarifs_supplements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\openclassroom\applicationTest\initData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perre\eclipse-workspace\Django\les_grandes_oreilles\admin_interface\initData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B7CE16-9984-44A5-9616-F4E2E1AFCF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9580A-FA5F-4DB6-ACDA-E4A24B06C8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{239CB0ED-6ECA-4F29-AA1D-51A5640D6E39}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{239CB0ED-6ECA-4F29-AA1D-51A5640D6E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
